--- a/outputs-HGR-r202-archive/g__CAG-279.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-279.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,73 +576,73 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27169.fa</t>
+          <t>even_MAG-GUT32343.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1949565072518228</v>
+        <v>0.8908346555982822</v>
       </c>
       <c r="C4" t="n">
-        <v>2.62386074534719e-05</v>
+        <v>4.901243107953272e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0007658233763384153</v>
+        <v>5.566053163298112e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1671772430137366</v>
+        <v>0.07161479432130757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6314667389381372</v>
+        <v>0.02469399001471329</v>
       </c>
       <c r="G4" t="n">
-        <v>7.872334640247349e-05</v>
+        <v>0.01180582532643299</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005528725466109093</v>
+        <v>0.0009945840833202296</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6314667389381372</v>
+        <v>0.8908346555982822</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>s__CAG-279 sp900548875</t>
+          <t>s__CAG-279 sp000437795</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>s__CAG-279 sp900548875</t>
+          <t>s__CAG-279 sp000437795</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32343.fa</t>
+          <t>even_MAG-GUT4600.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8908346555982822</v>
+        <v>0.8546810599595418</v>
       </c>
       <c r="C5" t="n">
-        <v>4.901243107953272e-07</v>
+        <v>1.304398856583218e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>5.566053163298112e-05</v>
+        <v>0.0001103871438710932</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07161479432130757</v>
+        <v>0.07482831798706731</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02469399001471329</v>
+        <v>0.06243950521976415</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01180582532643299</v>
+        <v>0.003554753015585301</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009945840833202296</v>
+        <v>0.004384672275313808</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8908346555982822</v>
+        <v>0.8546810599595418</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -658,121 +658,39 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38735.fa</t>
+          <t>even_MAG-GUT78923.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07923165822019072</v>
+        <v>0.0074843090015041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003796655529084357</v>
+        <v>0.1013430148094069</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0104794604214873</v>
+        <v>0.0001150173233140029</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1028803996476393</v>
+        <v>0.5293228761017419</v>
       </c>
       <c r="F6" t="n">
-        <v>0.650081231016339</v>
+        <v>0.3611964937468974</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1503334269588127</v>
+        <v>7.137474082092671e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003197168206446585</v>
+        <v>0.0004669142763148624</v>
       </c>
       <c r="I6" t="n">
-        <v>0.650081231016339</v>
+        <v>0.5293228761017419</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>s__CAG-279 sp900548875</t>
+          <t>s__CAG-279 sp900544305</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>s__CAG-279 sp900548875</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT4600.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8546810599595418</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.304398856583218e-06</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0001103871438710932</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.07482831798706731</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.06243950521976415</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.003554753015585301</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.004384672275313808</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8546810599595418</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s__CAG-279 sp000437795</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>s__CAG-279 sp000437795</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78923.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0074843090015041</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1013430148094069</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0001150173233140029</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5293228761017419</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3611964937468974</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.137474082092671e-05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0004669142763148624</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.5293228761017419</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__CAG-279 sp900544305</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>s__CAG-279 sp900544305</t>
         </is>
